--- a/ig/ch-elm/StructureDefinition-ch-elm-ber-identifier.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ber-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
